--- a/import-template/Faculty Template 1.xlsx
+++ b/import-template/Faculty Template 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\Capstone\import-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFDA697-3825-4997-BB94-443D3B6462A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D50CF0F-CB8B-4BB5-8F25-5E2A44ED15CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{69FD8C75-4047-4FDC-AE7C-5CC9CE87E7E7}"/>
+    <workbookView xWindow="5805" yWindow="3795" windowWidth="18045" windowHeight="11325" xr2:uid="{69FD8C75-4047-4FDC-AE7C-5CC9CE87E7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="FacultyList" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>FACULTY_NUMBER</t>
   </si>
@@ -51,18 +51,6 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>NIKKO</t>
-  </si>
-  <si>
-    <t>PANTOJA</t>
-  </si>
-  <si>
-    <t>MARK</t>
-  </si>
-  <si>
-    <t>KENDRICK</t>
-  </si>
-  <si>
     <t>SECOND_NAME</t>
   </si>
   <si>
@@ -72,152 +60,35 @@
     <t xml:space="preserve">PHONE </t>
   </si>
   <si>
-    <t xml:space="preserve">CRISTINA </t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MA.</t>
-  </si>
-  <si>
-    <t>LORENZ</t>
-  </si>
-  <si>
-    <t>LAWSIN</t>
-  </si>
-  <si>
-    <t>ERALD</t>
-  </si>
-  <si>
-    <t>CHERWIN</t>
-  </si>
-  <si>
-    <t>ALEJANDRIA</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>PANGANIBAN</t>
-  </si>
-  <si>
-    <t>GE-CW</t>
-  </si>
-  <si>
-    <t>GE-STS</t>
-  </si>
-  <si>
-    <t>ITDOM5L-ELEC5</t>
-  </si>
-  <si>
-    <t>ITDOM5R-ELEC5</t>
-  </si>
-  <si>
-    <t>ITPROFL-CAPS2</t>
-  </si>
-  <si>
-    <t>ITPROFR-CAPS2</t>
-  </si>
-  <si>
-    <t>THEO5</t>
-  </si>
-  <si>
     <t>COURSE_CODE</t>
   </si>
   <si>
     <t>COURSE_NAME</t>
   </si>
   <si>
-    <t>The Contemporary World</t>
-  </si>
-  <si>
-    <t>Science, Technology and Society</t>
-  </si>
-  <si>
-    <t>IT Prof. Elective 5 Laboratory</t>
-  </si>
-  <si>
-    <t>IT Prof. Elective 5</t>
-  </si>
-  <si>
-    <t>Capstone Project and Research 2 Laboratory</t>
-  </si>
-  <si>
-    <t>Capstone Project and Research 2</t>
-  </si>
-  <si>
-    <t>Marriage and Family Life</t>
-  </si>
-  <si>
     <t>UNITS</t>
   </si>
   <si>
-    <t>092834230</t>
-  </si>
-  <si>
-    <t>098432735</t>
-  </si>
-  <si>
-    <t>093482395</t>
-  </si>
-  <si>
-    <t>092384624</t>
-  </si>
-  <si>
-    <t>097318261</t>
-  </si>
-  <si>
-    <t>lopez@test.com</t>
-  </si>
-  <si>
-    <t>lawsin@test.com</t>
-  </si>
-  <si>
-    <t>erald@test.com</t>
-  </si>
-  <si>
-    <t>alejandria@test.com</t>
-  </si>
-  <si>
-    <t>panganiban@test.com</t>
-  </si>
-  <si>
     <t>SECTION</t>
   </si>
   <si>
     <t>SCHEDULES</t>
   </si>
   <si>
-    <t>MW 12:00PM-1:30PM</t>
-  </si>
-  <si>
-    <t>M 6:00PM-9:00PM</t>
-  </si>
-  <si>
-    <t>F 10:00AM-1:00PM</t>
-  </si>
-  <si>
-    <t>F 7:30AM-10:00AM</t>
-  </si>
-  <si>
-    <t>F 1:30PM-3:00PM</t>
-  </si>
-  <si>
-    <t>F 3:00PM-6:00PM</t>
-  </si>
-  <si>
-    <t>MW 3:00PM-4:30PM</t>
-  </si>
-  <si>
-    <t>BSIT-4A</t>
+    <t>Employment Status</t>
+  </si>
+  <si>
+    <t>YEAR_LEVEL</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,36 +104,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -270,34 +121,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -305,16 +133,8 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA0D9D9-4040-4749-A667-981B54E007B6}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,137 +472,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{1E46716B-A7DC-408D-9DA0-269D2B6E8904}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{46CA20F3-E9D6-44CD-90D7-1C64481D33C5}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{1F45C009-2D97-4FB0-90B3-BF429997AFD7}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{BFB06E8C-9B87-4D7F-9BF8-1710A43BF7B7}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{F76692C1-5D62-42D4-A1AE-F532FE1B97F7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458BCA95-6238-4C2C-A814-681AB5428FC5}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,167 +508,36 @@
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/import-template/Faculty Template 1.xlsx
+++ b/import-template/Faculty Template 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\Capstone\import-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D50CF0F-CB8B-4BB5-8F25-5E2A44ED15CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6F6FC6-F404-477A-93AC-F225BDA1CD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="3795" windowWidth="18045" windowHeight="11325" xr2:uid="{69FD8C75-4047-4FDC-AE7C-5CC9CE87E7E7}"/>
+    <workbookView xWindow="5115" yWindow="3105" windowWidth="21105" windowHeight="11325" xr2:uid="{69FD8C75-4047-4FDC-AE7C-5CC9CE87E7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="FacultyList" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>FACULTY_NUMBER</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>DATE OF EMPLOYMENT</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA0D9D9-4040-4749-A667-981B54E007B6}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,9 +468,11 @@
     <col min="6" max="6" width="16.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -488,6 +496,12 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
